--- a/data/processed/y_test.xlsx
+++ b/data/processed/y_test.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -492,12 +492,12 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -517,7 +517,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -532,7 +532,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -572,7 +572,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -607,7 +607,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -617,12 +617,12 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -632,7 +632,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -652,7 +652,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -662,7 +662,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -672,7 +672,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -692,7 +692,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -707,7 +707,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -747,7 +747,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -772,7 +772,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -797,7 +797,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -817,12 +817,12 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -832,7 +832,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -847,7 +847,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -867,7 +867,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -882,17 +882,17 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -932,12 +932,12 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -952,12 +952,12 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -967,7 +967,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -992,7 +992,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1017,7 +1017,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1037,7 +1037,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -1072,7 +1072,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1137,12 +1137,12 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1152,7 +1152,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1167,7 +1167,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -1197,7 +1197,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1237,17 +1237,17 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -1292,17 +1292,17 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -1317,12 +1317,12 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -1342,7 +1342,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -1372,7 +1372,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -1407,17 +1407,17 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -1432,17 +1432,17 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -1487,12 +1487,12 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -1512,12 +1512,12 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -1557,12 +1557,12 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -1577,7 +1577,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -1602,12 +1602,12 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -1617,17 +1617,17 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -1647,12 +1647,12 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -1667,12 +1667,12 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -1712,7 +1712,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -1737,7 +1737,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -1752,7 +1752,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -1762,12 +1762,12 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -1777,7 +1777,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -1797,7 +1797,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -1817,7 +1817,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -1827,7 +1827,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -1842,7 +1842,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -1852,7 +1852,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -1882,7 +1882,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -1897,7 +1897,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -1912,12 +1912,12 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298">
@@ -1927,7 +1927,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -1952,7 +1952,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -1992,7 +1992,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -2007,7 +2007,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -2037,7 +2037,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
